--- a/tools/anssi/anssi-recommandations-securite-architecture-systeme-journalisation.xlsx
+++ b/tools/anssi/anssi-recommandations-securite-architecture-systeme-journalisation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>library_urn</t>
   </si>
@@ -33,7 +33,7 @@
     <t>library_ref_id</t>
   </si>
   <si>
-    <t>ANSSI</t>
+    <t>ANSSI-REC-JOURNALISATION</t>
   </si>
   <si>
     <t>library_name</t>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>library_provider</t>
+  </si>
+  <si>
+    <t>ANSSI</t>
   </si>
   <si>
     <t>library_packager</t>
@@ -2010,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2018,10 +2021,10 @@
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2029,10 +2032,10 @@
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2040,7 +2043,7 @@
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="3">
         <v>6</v>
@@ -2051,7 +2054,7 @@
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="3">
         <v>8</v>
@@ -2062,10 +2065,10 @@
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2073,26 +2076,26 @@
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2126,25 +2129,25 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="B1" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s" s="9">
-        <v>25</v>
-      </c>
       <c r="D1" t="s" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1">
@@ -2154,10 +2157,10 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" t="s" s="13">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -2169,53 +2172,53 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="15">
         <v>3</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="16"/>
     </row>
     <row r="5" ht="64" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="15">
         <v>3</v>
       </c>
       <c r="C5" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="16"/>
     </row>
@@ -2226,53 +2229,53 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
     <row r="7" ht="48" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="15">
         <v>3</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="16"/>
     </row>
     <row r="8" ht="32" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="15">
         <v>3</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="16"/>
     </row>
@@ -2283,32 +2286,32 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
     <row r="10" ht="48" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="15">
         <v>3</v>
       </c>
       <c r="C10" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -2319,53 +2322,53 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="15">
         <v>3</v>
       </c>
       <c r="C12" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="16"/>
     </row>
     <row r="13" ht="80" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="15">
         <v>3</v>
       </c>
       <c r="C13" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s" s="6">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -2376,10 +2379,10 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
@@ -2391,32 +2394,32 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16" ht="32" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="15">
         <v>4</v>
       </c>
       <c r="C16" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s" s="6">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" s="16"/>
     </row>
@@ -2427,10 +2430,10 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -2442,95 +2445,95 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
     <row r="19" ht="16" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="15">
         <v>3</v>
       </c>
       <c r="C19" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="6">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" s="16"/>
     </row>
     <row r="20" ht="32" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="15">
         <v>3</v>
       </c>
       <c r="C20" t="s" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s" s="6">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" s="16"/>
     </row>
     <row r="21" ht="48" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="15">
         <v>3</v>
       </c>
       <c r="C21" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s" s="6">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" s="16"/>
     </row>
     <row r="22" ht="16" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="15">
         <v>3</v>
       </c>
       <c r="C22" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G22" s="16"/>
     </row>
@@ -2541,32 +2544,32 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" ht="80" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="15">
         <v>3</v>
       </c>
       <c r="C24" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s" s="6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G24" s="16"/>
     </row>
@@ -2577,10 +2580,10 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -2592,32 +2595,32 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
     <row r="27" ht="80" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="15">
         <v>4</v>
       </c>
       <c r="C27" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G27" s="16"/>
     </row>
@@ -2628,53 +2631,53 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" ht="80" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="15">
         <v>4</v>
       </c>
       <c r="C29" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F29" t="s" s="6">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G29" s="16"/>
     </row>
     <row r="30" ht="16" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="15">
         <v>4</v>
       </c>
       <c r="C30" t="s" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s" s="6">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G30" s="16"/>
     </row>
@@ -2685,32 +2688,32 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" ht="96" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="15">
         <v>4</v>
       </c>
       <c r="C32" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s" s="6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G32" s="16"/>
     </row>
@@ -2721,32 +2724,32 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="15">
         <v>4</v>
       </c>
       <c r="C34" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s" s="6">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G34" s="16"/>
     </row>
@@ -2757,32 +2760,32 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="15">
         <v>4</v>
       </c>
       <c r="C36" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F36" t="s" s="6">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G36" s="16"/>
     </row>
@@ -2793,32 +2796,32 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
     <row r="38" ht="192" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="15">
         <v>4</v>
       </c>
       <c r="C38" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s" s="6">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G38" s="16"/>
     </row>
@@ -2829,74 +2832,74 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="15">
         <v>4</v>
       </c>
       <c r="C40" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s" s="6">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G40" s="16"/>
     </row>
     <row r="41" ht="80" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="15">
         <v>4</v>
       </c>
       <c r="C41" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F41" t="s" s="6">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G41" s="16"/>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" s="15">
         <v>4</v>
       </c>
       <c r="C42" t="s" s="6">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F42" t="s" s="6">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G42" s="16"/>
     </row>
@@ -2907,10 +2910,10 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -2922,32 +2925,32 @@
       </c>
       <c r="C44" s="4"/>
       <c r="D44" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
     <row r="45" ht="32" customHeight="1">
       <c r="A45" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" s="15">
         <v>4</v>
       </c>
       <c r="C45" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F45" t="s" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G45" s="16"/>
     </row>
@@ -2958,32 +2961,32 @@
       </c>
       <c r="C46" s="4"/>
       <c r="D46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" s="15">
         <v>4</v>
       </c>
       <c r="C47" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F47" t="s" s="6">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G47" s="16"/>
     </row>
@@ -2994,53 +2997,53 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
     </row>
     <row r="49" ht="48" customHeight="1">
       <c r="A49" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B49" s="15">
         <v>4</v>
       </c>
       <c r="C49" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F49" t="s" s="6">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G49" s="16"/>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B50" s="15">
         <v>4</v>
       </c>
       <c r="C50" t="s" s="6">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F50" t="s" s="6">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G50" s="16"/>
     </row>
@@ -3051,32 +3054,32 @@
       </c>
       <c r="C51" s="4"/>
       <c r="D51" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16"/>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B52" s="15">
         <v>4</v>
       </c>
       <c r="C52" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F52" t="s" s="6">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G52" s="16"/>
     </row>
@@ -3087,32 +3090,32 @@
       </c>
       <c r="C53" s="4"/>
       <c r="D53" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
     </row>
     <row r="54" ht="32" customHeight="1">
       <c r="A54" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B54" s="15">
         <v>4</v>
       </c>
       <c r="C54" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F54" t="s" s="6">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G54" s="16"/>
     </row>
@@ -3123,74 +3126,74 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B56" s="15">
         <v>4</v>
       </c>
       <c r="C56" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F56" t="s" s="6">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G56" s="16"/>
     </row>
     <row r="57" ht="16" customHeight="1">
       <c r="A57" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B57" s="15">
         <v>4</v>
       </c>
       <c r="C57" t="s" s="6">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F57" t="s" s="6">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G57" s="16"/>
     </row>
     <row r="58" ht="16" customHeight="1">
       <c r="A58" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58" s="17">
         <v>4</v>
       </c>
       <c r="C58" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F58" t="s" s="6">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G58" s="16"/>
     </row>
@@ -3201,10 +3204,10 @@
       </c>
       <c r="C59" s="4"/>
       <c r="D59" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16"/>
@@ -3216,53 +3219,53 @@
       </c>
       <c r="C60" s="4"/>
       <c r="D60" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
     </row>
     <row r="61" ht="32" customHeight="1">
       <c r="A61" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B61" s="15">
         <v>4</v>
       </c>
       <c r="C61" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F61" t="s" s="6">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G61" s="16"/>
     </row>
     <row r="62" ht="16" customHeight="1">
       <c r="A62" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B62" s="15">
         <v>4</v>
       </c>
       <c r="C62" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F62" t="s" s="6">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G62" s="16"/>
     </row>
@@ -3273,32 +3276,32 @@
       </c>
       <c r="C63" s="4"/>
       <c r="D63" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16"/>
     </row>
     <row r="64" ht="32" customHeight="1">
       <c r="A64" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B64" s="15">
         <v>4</v>
       </c>
       <c r="C64" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F64" t="s" s="6">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G64" s="16"/>
     </row>
@@ -3309,32 +3312,32 @@
       </c>
       <c r="C65" s="4"/>
       <c r="D65" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
     </row>
     <row r="66" ht="64" customHeight="1">
       <c r="A66" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B66" s="15">
         <v>3</v>
       </c>
       <c r="C66" t="s" s="6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F66" t="s" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G66" s="16"/>
     </row>
@@ -3363,52 +3366,52 @@
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" ht="65.55" customHeight="1">
       <c r="A2" t="s" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s" s="6">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" ht="39.55" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" ht="65.55" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
